--- a/DallasDesignSprint/ScrapingOutput/locations/CelebrationofLifePark/CelebrationofLifePark.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/CelebrationofLifePark/CelebrationofLifePark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>32.7858069</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,951 @@
         <v>32.7858069</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.8146113</v>
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Paul Ashley</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Took my grandchildren here on our down the dart rail siteseeing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9 years ago</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jemhold Thomas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nice place to sit and people watch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Basang Soledi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Always stop by this place every day im in downtown Dallas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>G Garza</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Expected more small park</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gerald Fielder</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A peaceful place 🙏🙏 🙏🙏🙏 for me …</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gustavo Bermudez</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Highly education and beautiful!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Manoj Kambli</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Green patch within downtown.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kevin Meyer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Peaceful</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10 years ago</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jimpson Morency</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nice place</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Donna Rae Pearson</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PlaygroundThis is a commemoration park. There is no playground equipment.RestroomsThere are no restrooms.Dog-friendlinessThis not a place for dogs.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tia Juan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Beautiful place!</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sylvie Lefebvre</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Park with very original sculptures. Translated by Google ・ See original (French)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Carbo Kuo (BYVoid)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>An ordinary street park is home to many homeless people. Translated by Google ・ See original (Chinese)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>granja los alaquines</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>There's quite a lot of construction on that side. Translated by Google ・ See original (Spanish)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ismail Kosar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Donald Underwood</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bojo Pigeon</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Myra Elliott</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sindhu k</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>David Winters</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Israel Lazarin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alejandro Delgadillo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TheDwayne04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sara Burchett</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nadeira .</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AN Btlr</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Eli</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brianna Lopez</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mariana Arellano</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tom Burchard</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mario Almada</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Matthew Alexander</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Siti Davis</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kelli Stephenson</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Christina Connelly</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Glenn Gregoroff</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-96.79555689999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Christopher George-Twyman</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>32.7858069</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-96.79555689999999</v>
       </c>
     </row>
   </sheetData>
